--- a/data/trans_orig/IP19D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2642E147-2E11-4828-A0F3-CBE6B6D6CD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BE9C0C6-96D8-4307-BA4A-352427E1C50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{791D547A-A243-46C6-A08A-5DA8CBA09DAD}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9C7A1473-ABCF-4B29-8D36-E4770657E8FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -176,6 +176,102 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -287,102 +383,6 @@
     <t>2,96%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
     <t>32,59%</t>
   </si>
   <si>
@@ -575,6 +575,105 @@
     <t>10,18%</t>
   </si>
   <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
     <t>40,44%</t>
   </si>
   <si>
@@ -656,9 +755,6 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
     <t>2,11%</t>
   </si>
   <si>
@@ -677,102 +773,6 @@
     <t>3,39%</t>
   </si>
   <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
     <t>46,45%</t>
   </si>
   <si>
@@ -950,15 +950,105 @@
     <t>14,55%</t>
   </si>
   <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
     <t>36,31%</t>
   </si>
   <si>
     <t>30,78%</t>
   </si>
   <si>
-    <t>41,75%</t>
-  </si>
-  <si>
     <t>30,67%</t>
   </si>
   <si>
@@ -1049,96 +1139,6 @@
     <t>2,95%</t>
   </si>
   <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
     <t>39,42%</t>
   </si>
   <si>
@@ -1313,6 +1313,87 @@
     <t>2,51%</t>
   </si>
   <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
     <t>19,03%</t>
   </si>
   <si>
@@ -1337,9 +1418,6 @@
     <t>15,32%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
     <t>0,39%</t>
   </si>
   <si>
@@ -1389,84 +1467,6 @@
   </si>
   <si>
     <t>0,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
   </si>
   <si>
     <t>19,57%</t>
@@ -1930,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26894467-10DA-41A0-BEA1-DC886BCE589A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE450F2-7698-4499-9877-216A274736A3}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2305,10 +2305,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D9" s="7">
-        <v>61450</v>
+        <v>47283</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>46</v>
@@ -2320,10 +2320,10 @@
         <v>48</v>
       </c>
       <c r="H9" s="7">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I9" s="7">
-        <v>57934</v>
+        <v>45924</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>49</v>
@@ -2335,10 +2335,10 @@
         <v>51</v>
       </c>
       <c r="M9" s="7">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="N9" s="7">
-        <v>119385</v>
+        <v>93208</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>52</v>
@@ -2356,10 +2356,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>5497</v>
+        <v>2704</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>55</v>
@@ -2371,10 +2371,10 @@
         <v>57</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>4361</v>
+        <v>3204</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>58</v>
@@ -2386,10 +2386,10 @@
         <v>60</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>9858</v>
+        <v>5909</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>61</v>
@@ -2407,10 +2407,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="7">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>156636</v>
+        <v>59124</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>64</v>
@@ -2422,10 +2422,10 @@
         <v>66</v>
       </c>
       <c r="H11" s="7">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="I11" s="7">
-        <v>154378</v>
+        <v>54205</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>67</v>
@@ -2437,10 +2437,10 @@
         <v>69</v>
       </c>
       <c r="M11" s="7">
-        <v>461</v>
+        <v>169</v>
       </c>
       <c r="N11" s="7">
-        <v>311014</v>
+        <v>113328</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>70</v>
@@ -2458,49 +2458,49 @@
         <v>39</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>4135</v>
+        <v>671</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>635</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3323</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1305</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="7">
-        <v>11</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7458</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,10 +2509,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>340</v>
+        <v>167</v>
       </c>
       <c r="D13" s="7">
-        <v>227718</v>
+        <v>109782</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -2524,10 +2524,10 @@
         <v>44</v>
       </c>
       <c r="H13" s="7">
-        <v>326</v>
+        <v>154</v>
       </c>
       <c r="I13" s="7">
-        <v>219996</v>
+        <v>103968</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>44</v>
@@ -2539,10 +2539,10 @@
         <v>44</v>
       </c>
       <c r="M13" s="7">
-        <v>666</v>
+        <v>321</v>
       </c>
       <c r="N13" s="7">
-        <v>447715</v>
+        <v>213750</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>44</v>
@@ -2556,55 +2556,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D14" s="7">
-        <v>47283</v>
+        <v>61450</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="7">
+        <v>85</v>
+      </c>
+      <c r="I14" s="7">
+        <v>57934</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>179</v>
+      </c>
+      <c r="N14" s="7">
+        <v>119385</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="7">
-        <v>69</v>
-      </c>
-      <c r="I14" s="7">
-        <v>45924</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="7">
-        <v>141</v>
-      </c>
-      <c r="N14" s="7">
-        <v>93208</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,49 +2613,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>2704</v>
+        <v>5497</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="7">
+        <v>7</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4361</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>15</v>
+      </c>
+      <c r="N15" s="7">
+        <v>9858</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="7">
-        <v>5</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3204</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M15" s="7">
-        <v>9</v>
-      </c>
-      <c r="N15" s="7">
-        <v>5909</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,49 +2664,49 @@
         <v>29</v>
       </c>
       <c r="C16" s="7">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="D16" s="7">
-        <v>59124</v>
+        <v>156636</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="7">
+        <v>229</v>
+      </c>
+      <c r="I16" s="7">
+        <v>154378</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>461</v>
+      </c>
+      <c r="N16" s="7">
+        <v>311014</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="7">
-        <v>79</v>
-      </c>
-      <c r="I16" s="7">
-        <v>54205</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M16" s="7">
-        <v>169</v>
-      </c>
-      <c r="N16" s="7">
-        <v>113328</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,46 +2715,46 @@
         <v>39</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>671</v>
+        <v>4135</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3323</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>11</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7458</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>635</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1305</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>113</v>
@@ -2766,10 +2766,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="D18" s="7">
-        <v>109782</v>
+        <v>227718</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>44</v>
@@ -2781,10 +2781,10 @@
         <v>44</v>
       </c>
       <c r="H18" s="7">
-        <v>154</v>
+        <v>326</v>
       </c>
       <c r="I18" s="7">
-        <v>103968</v>
+        <v>219996</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>44</v>
@@ -2796,10 +2796,10 @@
         <v>44</v>
       </c>
       <c r="M18" s="7">
-        <v>321</v>
+        <v>666</v>
       </c>
       <c r="N18" s="7">
-        <v>213750</v>
+        <v>447715</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>44</v>
@@ -3084,7 +3084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370788DB-8DE0-4390-B119-D46A7B628B4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C254DD-4F7A-4A78-9314-25422C82A2A2}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3274,7 +3274,7 @@
         <v>609</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -3459,10 +3459,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D9" s="7">
-        <v>88459</v>
+        <v>74559</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>178</v>
@@ -3474,34 +3474,34 @@
         <v>180</v>
       </c>
       <c r="H9" s="7">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="I9" s="7">
-        <v>99229</v>
+        <v>61912</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M9" s="7">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="N9" s="7">
-        <v>187689</v>
+        <v>136470</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,49 +3510,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>8717</v>
+        <v>6595</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>3538</v>
+        <v>3490</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>12255</v>
+        <v>10085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,49 +3561,49 @@
         <v>29</v>
       </c>
       <c r="C11" s="7">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>117344</v>
+        <v>48310</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I11" s="7">
-        <v>106481</v>
+        <v>59693</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
-        <v>326</v>
+        <v>151</v>
       </c>
       <c r="N11" s="7">
-        <v>223826</v>
+        <v>108003</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,49 +3612,49 @@
         <v>39</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>4208</v>
+        <v>3090</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>4519</v>
+        <v>627</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>208</v>
       </c>
       <c r="M12" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>8726</v>
+        <v>3716</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>209</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,10 +3663,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>323</v>
+        <v>181</v>
       </c>
       <c r="D13" s="7">
-        <v>218728</v>
+        <v>132554</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -3678,10 +3678,10 @@
         <v>44</v>
       </c>
       <c r="H13" s="7">
-        <v>306</v>
+        <v>176</v>
       </c>
       <c r="I13" s="7">
-        <v>213767</v>
+        <v>125722</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>44</v>
@@ -3693,10 +3693,10 @@
         <v>44</v>
       </c>
       <c r="M13" s="7">
-        <v>629</v>
+        <v>357</v>
       </c>
       <c r="N13" s="7">
-        <v>432496</v>
+        <v>258275</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>44</v>
@@ -3710,55 +3710,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D14" s="7">
-        <v>74559</v>
+        <v>88459</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>143</v>
+      </c>
+      <c r="I14" s="7">
+        <v>99229</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H14" s="7">
-        <v>86</v>
-      </c>
-      <c r="I14" s="7">
-        <v>61912</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>272</v>
+      </c>
+      <c r="N14" s="7">
+        <v>187689</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M14" s="7">
-        <v>187</v>
-      </c>
-      <c r="N14" s="7">
-        <v>136470</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,49 +3767,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7">
-        <v>6595</v>
+        <v>8717</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
       </c>
       <c r="I15" s="7">
-        <v>3490</v>
+        <v>3538</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M15" s="7">
+        <v>18</v>
+      </c>
+      <c r="N15" s="7">
+        <v>12255</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="M15" s="7">
-        <v>14</v>
-      </c>
-      <c r="N15" s="7">
-        <v>10085</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,49 +3818,49 @@
         <v>29</v>
       </c>
       <c r="C16" s="7">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="D16" s="7">
-        <v>48310</v>
+        <v>117344</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>152</v>
+      </c>
+      <c r="I16" s="7">
+        <v>106481</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H16" s="7">
-        <v>84</v>
-      </c>
-      <c r="I16" s="7">
-        <v>59693</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>326</v>
+      </c>
+      <c r="N16" s="7">
+        <v>223826</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M16" s="7">
-        <v>151</v>
-      </c>
-      <c r="N16" s="7">
-        <v>108003</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,46 +3869,46 @@
         <v>39</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>3090</v>
+        <v>4208</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4519</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>627</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>13</v>
+      </c>
+      <c r="N17" s="7">
+        <v>8726</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M17" s="7">
-        <v>5</v>
-      </c>
-      <c r="N17" s="7">
-        <v>3716</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>243</v>
@@ -3920,10 +3920,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>181</v>
+        <v>323</v>
       </c>
       <c r="D18" s="7">
-        <v>132554</v>
+        <v>218728</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>44</v>
@@ -3935,10 +3935,10 @@
         <v>44</v>
       </c>
       <c r="H18" s="7">
-        <v>176</v>
+        <v>306</v>
       </c>
       <c r="I18" s="7">
-        <v>125722</v>
+        <v>213767</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>44</v>
@@ -3950,10 +3950,10 @@
         <v>44</v>
       </c>
       <c r="M18" s="7">
-        <v>357</v>
+        <v>629</v>
       </c>
       <c r="N18" s="7">
-        <v>258275</v>
+        <v>432496</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>44</v>
@@ -4045,13 +4045,13 @@
         <v>7637</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -4135,7 +4135,7 @@
         <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>270</v>
@@ -4150,7 +4150,7 @@
         <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>272</v>
@@ -4238,7 +4238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BEF318-9B18-4EFB-A50F-6FABF97E9382}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BB767D-5F84-415A-85C0-ACF368223BD2}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4530,7 +4530,7 @@
         <v>536</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>22</v>
@@ -4613,10 +4613,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D9" s="7">
-        <v>80938</v>
+        <v>57912</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>303</v>
@@ -4628,10 +4628,10 @@
         <v>305</v>
       </c>
       <c r="H9" s="7">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I9" s="7">
-        <v>67985</v>
+        <v>53469</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>306</v>
@@ -4643,10 +4643,10 @@
         <v>308</v>
       </c>
       <c r="M9" s="7">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="N9" s="7">
-        <v>148923</v>
+        <v>111382</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>309</v>
@@ -4667,46 +4667,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>3276</v>
+        <v>3094</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8813</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6963</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7">
+        <v>11907</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="M10" s="7">
-        <v>15</v>
-      </c>
-      <c r="N10" s="7">
-        <v>10240</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,49 +4715,49 @@
         <v>29</v>
       </c>
       <c r="C11" s="7">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7">
-        <v>135628</v>
+        <v>64882</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>94</v>
+      </c>
+      <c r="I11" s="7">
+        <v>63114</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H11" s="7">
-        <v>200</v>
-      </c>
-      <c r="I11" s="7">
-        <v>142252</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M11" s="7">
+        <v>187</v>
+      </c>
+      <c r="N11" s="7">
+        <v>127995</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M11" s="7">
-        <v>386</v>
-      </c>
-      <c r="N11" s="7">
-        <v>277879</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,49 +4766,49 @@
         <v>39</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>3047</v>
+        <v>4193</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>124</v>
+        <v>328</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>329</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2683</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4489</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="K12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" s="7">
+        <v>6875</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="M12" s="7">
-        <v>11</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7536</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="D13" s="7">
-        <v>222889</v>
+        <v>130081</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -4832,10 +4832,10 @@
         <v>44</v>
       </c>
       <c r="H13" s="7">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="I13" s="7">
-        <v>221689</v>
+        <v>128078</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>44</v>
@@ -4847,10 +4847,10 @@
         <v>44</v>
       </c>
       <c r="M13" s="7">
-        <v>615</v>
+        <v>379</v>
       </c>
       <c r="N13" s="7">
-        <v>444578</v>
+        <v>258159</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>44</v>
@@ -4864,55 +4864,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D14" s="7">
-        <v>57912</v>
+        <v>80938</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="7">
+        <v>96</v>
+      </c>
+      <c r="I14" s="7">
+        <v>67985</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H14" s="7">
-        <v>82</v>
-      </c>
-      <c r="I14" s="7">
-        <v>53469</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>203</v>
+      </c>
+      <c r="N14" s="7">
+        <v>148923</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="M14" s="7">
-        <v>164</v>
-      </c>
-      <c r="N14" s="7">
-        <v>111382</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,46 +4924,46 @@
         <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>3094</v>
+        <v>3276</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>227</v>
+        <v>342</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>10</v>
+      </c>
+      <c r="I15" s="7">
+        <v>6963</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H15" s="7">
-        <v>13</v>
-      </c>
-      <c r="I15" s="7">
-        <v>8813</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>15</v>
+      </c>
+      <c r="N15" s="7">
+        <v>10240</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="M15" s="7">
-        <v>18</v>
-      </c>
-      <c r="N15" s="7">
-        <v>11907</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,49 +4972,49 @@
         <v>29</v>
       </c>
       <c r="C16" s="7">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="D16" s="7">
-        <v>64882</v>
+        <v>135628</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>200</v>
+      </c>
+      <c r="I16" s="7">
+        <v>142252</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="H16" s="7">
-        <v>94</v>
-      </c>
-      <c r="I16" s="7">
-        <v>63114</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" s="7">
+        <v>386</v>
+      </c>
+      <c r="N16" s="7">
+        <v>277879</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M16" s="7">
-        <v>187</v>
-      </c>
-      <c r="N16" s="7">
-        <v>127995</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,43 +5023,43 @@
         <v>39</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>4193</v>
+        <v>3047</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4489</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2683</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>11</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7536</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="M17" s="7">
-        <v>10</v>
-      </c>
-      <c r="N17" s="7">
-        <v>6875</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>364</v>
@@ -5074,10 +5074,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="D18" s="7">
-        <v>130081</v>
+        <v>222889</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>44</v>
@@ -5089,10 +5089,10 @@
         <v>44</v>
       </c>
       <c r="H18" s="7">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="I18" s="7">
-        <v>128078</v>
+        <v>221689</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>44</v>
@@ -5104,10 +5104,10 @@
         <v>44</v>
       </c>
       <c r="M18" s="7">
-        <v>379</v>
+        <v>615</v>
       </c>
       <c r="N18" s="7">
-        <v>258159</v>
+        <v>444578</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>44</v>
@@ -5202,7 +5202,7 @@
         <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>378</v>
@@ -5292,7 +5292,7 @@
         <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -5301,7 +5301,7 @@
         <v>7707</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>392</v>
@@ -5319,7 +5319,7 @@
         <v>394</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>395</v>
@@ -5392,7 +5392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A4FCD-DCFE-4677-8E4C-B43DB9183B26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA985C33-C609-45AF-97C6-C5A840448617}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5767,10 +5767,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7">
-        <v>60833</v>
+        <v>25806</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>424</v>
@@ -5782,10 +5782,10 @@
         <v>426</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="I9" s="7">
-        <v>46093</v>
+        <v>24313</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>427</v>
@@ -5797,10 +5797,10 @@
         <v>429</v>
       </c>
       <c r="M9" s="7">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="N9" s="7">
-        <v>106927</v>
+        <v>50118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>430</v>
@@ -5818,49 +5818,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1871</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1261</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
-        <v>3683</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3191</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="7">
-        <v>10</v>
-      </c>
       <c r="N10" s="7">
-        <v>6875</v>
+        <v>3132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,49 +5869,49 @@
         <v>29</v>
       </c>
       <c r="C11" s="7">
-        <v>301</v>
+        <v>119</v>
       </c>
       <c r="D11" s="7">
-        <v>254220</v>
+        <v>96044</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H11" s="7">
-        <v>294</v>
+        <v>117</v>
       </c>
       <c r="I11" s="7">
-        <v>222597</v>
+        <v>84977</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M11" s="7">
-        <v>595</v>
+        <v>236</v>
       </c>
       <c r="N11" s="7">
-        <v>476818</v>
+        <v>181021</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,49 +5920,49 @@
         <v>39</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
-        <v>900</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>981</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1301</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>446</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>2201</v>
+        <v>981</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>449</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,10 +5971,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>377</v>
+        <v>155</v>
       </c>
       <c r="D13" s="7">
-        <v>319637</v>
+        <v>123720</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -5986,10 +5986,10 @@
         <v>44</v>
       </c>
       <c r="H13" s="7">
-        <v>369</v>
+        <v>154</v>
       </c>
       <c r="I13" s="7">
-        <v>273182</v>
+        <v>111532</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>44</v>
@@ -6001,10 +6001,10 @@
         <v>44</v>
       </c>
       <c r="M13" s="7">
-        <v>746</v>
+        <v>309</v>
       </c>
       <c r="N13" s="7">
-        <v>592820</v>
+        <v>235252</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>44</v>
@@ -6018,55 +6018,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D14" s="7">
-        <v>25806</v>
+        <v>60833</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="I14" s="7">
-        <v>24313</v>
+        <v>46093</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="N14" s="7">
-        <v>50118</v>
+        <v>106927</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,49 +6075,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>1871</v>
+        <v>3683</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>459</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>458</v>
+        <v>129</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" s="7">
-        <v>1261</v>
+        <v>3191</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>459</v>
+        <v>256</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>461</v>
+        <v>126</v>
       </c>
       <c r="M15" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N15" s="7">
-        <v>3132</v>
+        <v>6875</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>462</v>
+        <v>109</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,49 +6126,49 @@
         <v>29</v>
       </c>
       <c r="C16" s="7">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="D16" s="7">
-        <v>96044</v>
+        <v>254220</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H16" s="7">
+        <v>294</v>
+      </c>
+      <c r="I16" s="7">
+        <v>222597</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="H16" s="7">
-        <v>117</v>
-      </c>
-      <c r="I16" s="7">
-        <v>84977</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>595</v>
+      </c>
+      <c r="N16" s="7">
+        <v>476818</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="M16" s="7">
-        <v>236</v>
-      </c>
-      <c r="N16" s="7">
-        <v>181021</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,49 +6177,49 @@
         <v>39</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="G17" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1301</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>981</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2201</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>981</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,10 +6228,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="D18" s="7">
-        <v>123720</v>
+        <v>319637</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>44</v>
@@ -6243,10 +6243,10 @@
         <v>44</v>
       </c>
       <c r="H18" s="7">
-        <v>154</v>
+        <v>369</v>
       </c>
       <c r="I18" s="7">
-        <v>111532</v>
+        <v>273182</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>44</v>
@@ -6258,10 +6258,10 @@
         <v>44</v>
       </c>
       <c r="M18" s="7">
-        <v>309</v>
+        <v>746</v>
       </c>
       <c r="N18" s="7">
-        <v>235252</v>
+        <v>592820</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>44</v>
@@ -6338,13 +6338,13 @@
         <v>6175</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6353,13 +6353,13 @@
         <v>4452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -6368,7 +6368,7 @@
         <v>10627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>485</v>
@@ -6455,7 +6455,7 @@
         <v>2441</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>497</v>
@@ -6470,13 +6470,13 @@
         <v>3341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BE9C0C6-96D8-4307-BA4A-352427E1C50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0453F681-61B0-49A8-AE93-DAAE2CF2B66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9C7A1473-ABCF-4B29-8D36-E4770657E8FF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9BED0B9-7A32-47CC-8F9F-C18C74EE0FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="573">
   <si>
     <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2007 (Tasa respuesta: 50,0%)</t>
   </si>
@@ -68,1477 +68,1696 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>Dentista privado/particular</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
   </si>
   <si>
     <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
   </si>
   <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
   </si>
   <si>
     <t>46,51%</t>
   </si>
   <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>Dentista privado/particular</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2015 (Tasa respuesta: 48,21%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
   </si>
   <si>
     <t>26,67%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2015 (Tasa respuesta: 48,21%)</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>16,7%</t>
+    <t>16,63%</t>
   </si>
   <si>
     <t>21,68%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1768,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1645,39 +1864,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1729,7 +1948,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1840,13 +2059,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1855,6 +2067,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1919,19 +2138,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE450F2-7698-4499-9877-216A274736A3}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EA5517-2903-44CB-9727-3D6F2FF2B4B0}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2048,10 +2287,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>7647</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2063,142 +2302,142 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6282</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>22</v>
-      </c>
-      <c r="N4" s="7">
-        <v>13930</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1893</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2690</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1298</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="7">
+        <v>7</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4583</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1299</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2597</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>10689</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>13938</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>24627</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2207,43 +2446,43 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1216</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1216</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,255 +2491,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>19635</v>
+        <v>1893</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>21519</v>
+        <v>3906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="N8" s="7">
-        <v>41154</v>
+        <v>5799</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>47283</v>
+        <v>671</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>45924</v>
+        <v>635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M9" s="7">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>93208</v>
+        <v>1305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>2704</v>
+        <v>41156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I10" s="7">
-        <v>3204</v>
+        <v>44557</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="N10" s="7">
-        <v>5909</v>
+        <v>85712</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>59124</v>
+        <v>2633</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>54205</v>
+        <v>2544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>113328</v>
+        <v>5177</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>671</v>
+        <v>34675</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>635</v>
+        <v>35283</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="N12" s="7">
-        <v>1305</v>
+        <v>69958</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,255 +2748,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="D13" s="7">
-        <v>109782</v>
+        <v>79134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="I13" s="7">
-        <v>103968</v>
+        <v>83019</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M13" s="7">
-        <v>321</v>
+        <v>246</v>
       </c>
       <c r="N13" s="7">
-        <v>213750</v>
+        <v>162152</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>61450</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>57934</v>
+        <v>661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>119385</v>
+        <v>661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D15" s="7">
-        <v>5497</v>
+        <v>59571</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>4361</v>
+        <v>55889</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M15" s="7">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="N15" s="7">
-        <v>9858</v>
+        <v>115461</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>156636</v>
+        <v>2001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>154378</v>
+        <v>4515</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>461</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>311014</v>
+        <v>6516</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7">
-        <v>4135</v>
+        <v>43498</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="I17" s="7">
-        <v>3323</v>
+        <v>35898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="N17" s="7">
-        <v>7458</v>
+        <v>79396</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,255 +3005,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>340</v>
+        <v>157</v>
       </c>
       <c r="D18" s="7">
-        <v>227718</v>
+        <v>105070</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>326</v>
+        <v>145</v>
       </c>
       <c r="I18" s="7">
-        <v>219996</v>
+        <v>96963</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>666</v>
+        <v>302</v>
       </c>
       <c r="N18" s="7">
-        <v>447715</v>
+        <v>202033</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>116382</v>
+        <v>4135</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>110141</v>
+        <v>2662</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
-        <v>342</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>226522</v>
+        <v>6797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="D20" s="7">
-        <v>9500</v>
+        <v>123829</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="I20" s="7">
-        <v>8864</v>
+        <v>119385</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
-        <v>28</v>
+        <v>361</v>
       </c>
       <c r="N20" s="7">
-        <v>18364</v>
+        <v>243213</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
-        <v>339</v>
+        <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>226449</v>
+        <v>4867</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H21" s="7">
-        <v>330</v>
+        <v>3</v>
       </c>
       <c r="I21" s="7">
-        <v>222521</v>
+        <v>1805</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="M21" s="7">
-        <v>669</v>
+        <v>10</v>
       </c>
       <c r="N21" s="7">
-        <v>448969</v>
+        <v>6672</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D22" s="7">
-        <v>4806</v>
+        <v>38209</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I22" s="7">
-        <v>3958</v>
+        <v>37744</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="N22" s="7">
-        <v>8763</v>
+        <v>75953</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,55 +3262,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>257</v>
+      </c>
+      <c r="D23" s="7">
+        <v>171039</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="7">
+        <v>238</v>
+      </c>
+      <c r="I23" s="7">
+        <v>161596</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="7">
+        <v>495</v>
+      </c>
+      <c r="N23" s="7">
+        <v>332635</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>7</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4806</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="7">
+        <v>6</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3958</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" s="7">
+        <v>13</v>
+      </c>
+      <c r="N24" s="7">
+        <v>8763</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>339</v>
+      </c>
+      <c r="D25" s="7">
+        <v>226449</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>330</v>
+      </c>
+      <c r="I25" s="7">
+        <v>222521</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>669</v>
+      </c>
+      <c r="N25" s="7">
+        <v>448969</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9500</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="7">
+        <v>14</v>
+      </c>
+      <c r="I26" s="7">
+        <v>8864</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="7">
+        <v>28</v>
+      </c>
+      <c r="N26" s="7">
+        <v>18364</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7">
+        <v>178</v>
+      </c>
+      <c r="D27" s="7">
+        <v>116382</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="7">
+        <v>164</v>
+      </c>
+      <c r="I27" s="7">
+        <v>110141</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M27" s="7">
+        <v>342</v>
+      </c>
+      <c r="N27" s="7">
+        <v>226522</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>538</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>357136</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="7">
         <v>514</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>345484</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="7">
         <v>1052</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>702619</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>44</v>
+      <c r="O28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3084,8 +3586,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C254DD-4F7A-4A78-9314-25422C82A2A2}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B34200-EA8D-4A09-B975-5C70D494DACC}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3101,7 +3603,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3202,202 +3704,202 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6508</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>5959</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>12467</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>609</v>
+        <v>2049</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>1356</v>
+        <v>2049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>6452</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="7">
-        <v>7872</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M6" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>14324</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>582</v>
+        <v>1249</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>582</v>
+        <v>1918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,255 +3908,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>13707</v>
+        <v>669</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>15022</v>
+        <v>3298</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>28729</v>
+        <v>3967</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>74559</v>
+        <v>3090</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H9" s="7">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>61912</v>
+        <v>1209</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="M9" s="7">
+        <v>6</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4298</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="N9" s="7">
-        <v>136470</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>6595</v>
+        <v>34407</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>3490</v>
+        <v>36138</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N10" s="7">
-        <v>10085</v>
+        <v>70545</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>48310</v>
+        <v>3547</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>59693</v>
+        <v>2046</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>108003</v>
+        <v>5593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="D12" s="7">
-        <v>3090</v>
+        <v>50896</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>627</v>
+        <v>38221</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="N12" s="7">
-        <v>3716</v>
+        <v>89117</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,255 +4165,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="D13" s="7">
-        <v>132554</v>
+        <v>91939</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="I13" s="7">
-        <v>125722</v>
+        <v>77614</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M13" s="7">
-        <v>357</v>
+        <v>234</v>
       </c>
       <c r="N13" s="7">
-        <v>258275</v>
+        <v>169553</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>88459</v>
+        <v>1897</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>99229</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>187689</v>
+        <v>1897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>8717</v>
+        <v>55164</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H15" s="7">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="I15" s="7">
-        <v>3538</v>
+        <v>53938</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="N15" s="7">
-        <v>12255</v>
+        <v>109102</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>117344</v>
+        <v>7163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>106481</v>
+        <v>3473</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
-        <v>326</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>223826</v>
+        <v>10636</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D17" s="7">
-        <v>4208</v>
+        <v>66913</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="I17" s="7">
-        <v>4519</v>
+        <v>69147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="N17" s="7">
-        <v>8726</v>
+        <v>136061</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,255 +4422,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>323</v>
+        <v>189</v>
       </c>
       <c r="D18" s="7">
-        <v>218728</v>
+        <v>131138</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>306</v>
+        <v>180</v>
       </c>
       <c r="I18" s="7">
-        <v>213767</v>
+        <v>126558</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>629</v>
+        <v>369</v>
       </c>
       <c r="N18" s="7">
-        <v>432496</v>
+        <v>257696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>169525</v>
+        <v>2310</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>167100</v>
+        <v>4519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
-        <v>477</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>336625</v>
+        <v>6829</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>252</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="D20" s="7">
-        <v>16060</v>
+        <v>82536</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I20" s="7">
-        <v>7637</v>
+        <v>81922</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="N20" s="7">
-        <v>23697</v>
+        <v>164458</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>172107</v>
+        <v>5350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H21" s="7">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2118</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="I21" s="7">
-        <v>174046</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M21" s="7">
-        <v>498</v>
+        <v>11</v>
       </c>
       <c r="N21" s="7">
-        <v>346153</v>
+        <v>7467</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D22" s="7">
-        <v>7297</v>
+        <v>51047</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>59</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="I22" s="7">
-        <v>5728</v>
+        <v>58484</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="N22" s="7">
-        <v>13025</v>
+        <v>109531</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,55 +4679,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>209</v>
+      </c>
+      <c r="D23" s="7">
+        <v>141243</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="7">
+        <v>210</v>
+      </c>
+      <c r="I23" s="7">
+        <v>147042</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="7">
+        <v>419</v>
+      </c>
+      <c r="N23" s="7">
+        <v>288285</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7297</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H24" s="7">
+        <v>8</v>
+      </c>
+      <c r="I24" s="7">
+        <v>5728</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M24" s="7">
+        <v>19</v>
+      </c>
+      <c r="N24" s="7">
+        <v>13025</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>250</v>
+      </c>
+      <c r="D25" s="7">
+        <v>172107</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>248</v>
+      </c>
+      <c r="I25" s="7">
+        <v>174046</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>498</v>
+      </c>
+      <c r="N25" s="7">
+        <v>346153</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7">
+        <v>23</v>
+      </c>
+      <c r="D26" s="7">
+        <v>16060</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>11</v>
+      </c>
+      <c r="I26" s="7">
+        <v>7637</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>34</v>
+      </c>
+      <c r="N26" s="7">
+        <v>23697</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7">
+        <v>239</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169525</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H27" s="7">
+        <v>238</v>
+      </c>
+      <c r="I27" s="7">
+        <v>167100</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M27" s="7">
+        <v>477</v>
+      </c>
+      <c r="N27" s="7">
+        <v>336625</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>523</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>364989</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="7">
         <v>505</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>354511</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="7">
         <v>1028</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>719500</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>44</v>
+      <c r="O28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4238,8 +5003,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BB767D-5F84-415A-85C0-ACF368223BD2}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C7AF94-182E-424B-ACBC-81315D3F8F3C}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4255,7 +5020,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4356,70 +5121,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4385</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>4025</v>
+        <v>536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>281</v>
+        <v>19</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>8411</v>
+        <v>536</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4428,130 +5193,130 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>289</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>5299</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>4873</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>295</v>
+        <v>169</v>
       </c>
       <c r="M6" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>10172</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1284</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>536</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>536</v>
+        <v>1283</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,255 +5325,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>10376</v>
+        <v>1284</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>9434</v>
+        <v>536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>19811</v>
+        <v>1819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>57912</v>
+        <v>2747</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>304</v>
+        <v>99</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>305</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>53469</v>
+        <v>1311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="M9" s="7">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>111382</v>
+        <v>4057</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>3094</v>
+        <v>41176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>312</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>8813</v>
+        <v>29703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="N10" s="7">
-        <v>11907</v>
+        <v>70879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>64882</v>
+        <v>3120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>321</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>63114</v>
+        <v>3719</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>235</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>127995</v>
+        <v>6840</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
-        <v>4193</v>
+        <v>32812</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>195</v>
+        <v>342</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I12" s="7">
-        <v>2683</v>
+        <v>31573</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>6875</v>
+        <v>64385</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>123</v>
+        <v>346</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,255 +5582,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="D13" s="7">
-        <v>130081</v>
+        <v>79855</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="I13" s="7">
-        <v>128078</v>
+        <v>66306</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M13" s="7">
-        <v>379</v>
+        <v>216</v>
       </c>
       <c r="N13" s="7">
-        <v>258159</v>
+        <v>146161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>80938</v>
+        <v>2402</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>67985</v>
+        <v>1998</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>148923</v>
+        <v>4400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>339</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="D15" s="7">
-        <v>3276</v>
+        <v>72898</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="H15" s="7">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>6963</v>
+        <v>83988</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="M15" s="7">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="N15" s="7">
-        <v>10240</v>
+        <v>156886</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>135628</v>
+        <v>1916</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>142252</v>
+        <v>9449</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
-        <v>386</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>277879</v>
+        <v>11364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="D17" s="7">
-        <v>3047</v>
+        <v>69689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>372</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="I17" s="7">
-        <v>4489</v>
+        <v>52494</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="N17" s="7">
-        <v>7536</v>
+        <v>122183</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,255 +5839,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="D18" s="7">
-        <v>222889</v>
+        <v>146904</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>221689</v>
+        <v>147929</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>615</v>
+        <v>416</v>
       </c>
       <c r="N18" s="7">
-        <v>444578</v>
+        <v>294833</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>196</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>143237</v>
+        <v>2091</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>366</v>
+        <v>53</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="H19" s="7">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>125479</v>
+        <v>3863</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="M19" s="7">
-        <v>380</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>268716</v>
+        <v>5954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D20" s="7">
-        <v>7062</v>
+        <v>91735</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="I20" s="7">
-        <v>15776</v>
+        <v>96546</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>392</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="N20" s="7">
-        <v>22838</v>
+        <v>188281</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
-        <v>287</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>205809</v>
+        <v>2026</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="H21" s="7">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>210238</v>
+        <v>2608</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="M21" s="7">
-        <v>589</v>
+        <v>7</v>
       </c>
       <c r="N21" s="7">
-        <v>416047</v>
+        <v>4634</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D22" s="7">
-        <v>7240</v>
+        <v>39453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I22" s="7">
-        <v>7707</v>
+        <v>41412</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="M22" s="7">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="N22" s="7">
-        <v>14947</v>
+        <v>80865</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>94</v>
+        <v>412</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,55 +6096,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>183</v>
+      </c>
+      <c r="D23" s="7">
+        <v>135305</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="7">
+        <v>207</v>
+      </c>
+      <c r="I23" s="7">
+        <v>144429</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="7">
+        <v>390</v>
+      </c>
+      <c r="N23" s="7">
+        <v>279734</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7240</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7707</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="M24" s="7">
+        <v>22</v>
+      </c>
+      <c r="N24" s="7">
+        <v>14947</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>287</v>
+      </c>
+      <c r="D25" s="7">
+        <v>205808</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H25" s="7">
+        <v>302</v>
+      </c>
+      <c r="I25" s="7">
+        <v>210238</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M25" s="7">
+        <v>589</v>
+      </c>
+      <c r="N25" s="7">
+        <v>416047</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7062</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="7">
+        <v>23</v>
+      </c>
+      <c r="I26" s="7">
+        <v>15776</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M26" s="7">
+        <v>34</v>
+      </c>
+      <c r="N26" s="7">
+        <v>22838</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7">
+        <v>196</v>
+      </c>
+      <c r="D27" s="7">
+        <v>143236</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H27" s="7">
+        <v>184</v>
+      </c>
+      <c r="I27" s="7">
+        <v>125479</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M27" s="7">
+        <v>380</v>
+      </c>
+      <c r="N27" s="7">
+        <v>268716</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>504</v>
       </c>
-      <c r="D23" s="7">
-        <v>363347</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="D28" s="7">
+        <v>363346</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="7">
         <v>521</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>359201</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="7">
         <v>1025</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>722548</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>44</v>
+      <c r="O28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5392,8 +6420,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA985C33-C609-45AF-97C6-C5A840448617}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB44183-452D-4EA6-B07F-B22D0BFB9A3F}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5409,7 +6437,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5510,202 +6538,202 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4221</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>398</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>3633</v>
+        <v>159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>400</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>401</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>7854</v>
+        <v>159</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>403</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>404</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>621</v>
+        <v>4664</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>447</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>407</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>4471</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>448</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>40</v>
+        <v>449</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>621</v>
+        <v>9135</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>452</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>16064</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>411</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>412</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>12359</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>414</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>415</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>28422</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>418</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>456</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>159</v>
+        <v>1287</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>459</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>159</v>
+        <v>1907</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>462</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,255 +6742,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>20906</v>
+        <v>5284</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>16151</v>
+        <v>5917</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>37056</v>
+        <v>11201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>25806</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>24313</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>427</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>428</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="M9" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>50118</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>430</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>431</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D10" s="7">
-        <v>1871</v>
+        <v>54481</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>467</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>468</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="I10" s="7">
-        <v>1261</v>
+        <v>53641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="N10" s="7">
-        <v>3132</v>
+        <v>108122</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>473</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>96044</v>
+        <v>1556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>439</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="H11" s="7">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>84977</v>
+        <v>1261</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="M11" s="7">
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>181021</v>
+        <v>2818</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>444</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>16804</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>483</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I12" s="7">
-        <v>981</v>
+        <v>12168</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>487</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="N12" s="7">
-        <v>981</v>
+        <v>28972</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>490</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,255 +6999,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="D13" s="7">
-        <v>123720</v>
+        <v>72842</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="I13" s="7">
-        <v>111532</v>
+        <v>67070</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M13" s="7">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="N13" s="7">
-        <v>235252</v>
+        <v>139912</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>60833</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="H14" s="7">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>46093</v>
+        <v>1739</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="M14" s="7">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>106927</v>
+        <v>1739</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="D15" s="7">
-        <v>3683</v>
+        <v>121655</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>144</v>
+        <v>496</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>129</v>
+        <v>498</v>
       </c>
       <c r="H15" s="7">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="I15" s="7">
-        <v>3191</v>
+        <v>93300</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>256</v>
+        <v>499</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="M15" s="7">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="N15" s="7">
-        <v>6875</v>
+        <v>214955</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>88</v>
+        <v>502</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>109</v>
+        <v>503</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>330</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>254220</v>
+        <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="H16" s="7">
-        <v>294</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>222597</v>
+        <v>1986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
       <c r="M16" s="7">
-        <v>595</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>476818</v>
+        <v>2921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>900</v>
+        <v>34616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>513</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>1301</v>
+        <v>27941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="N17" s="7">
-        <v>2201</v>
+        <v>62557</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,255 +7256,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>377</v>
+        <v>186</v>
       </c>
       <c r="D18" s="7">
-        <v>319637</v>
+        <v>157207</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>369</v>
+        <v>164</v>
       </c>
       <c r="I18" s="7">
-        <v>273182</v>
+        <v>124966</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>746</v>
+        <v>350</v>
       </c>
       <c r="N18" s="7">
-        <v>592820</v>
+        <v>282172</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>90860</v>
+        <v>900</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>478</v>
-      </c>
       <c r="H19" s="7">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>74039</v>
+        <v>542</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>521</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>479</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="M19" s="7">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>164899</v>
+        <v>1443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>481</v>
+        <v>68</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>483</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>220</v>
       </c>
       <c r="D20" s="7">
-        <v>6175</v>
+        <v>185528</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="I20" s="7">
-        <v>4452</v>
+        <v>168520</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>527</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>528</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>529</v>
       </c>
       <c r="M20" s="7">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="N20" s="7">
-        <v>10627</v>
+        <v>354049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>447</v>
+        <v>530</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
-        <v>449</v>
+        <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>366328</v>
+        <v>3683</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="H21" s="7">
-        <v>434</v>
+        <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>319933</v>
+        <v>1205</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>490</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="M21" s="7">
-        <v>883</v>
+        <v>7</v>
       </c>
       <c r="N21" s="7">
-        <v>686261</v>
+        <v>4889</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>493</v>
+        <v>217</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7">
-        <v>900</v>
+        <v>38819</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>540</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="H22" s="7">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I22" s="7">
-        <v>2441</v>
+        <v>32644</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>73</v>
+        <v>542</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="N22" s="7">
-        <v>3341</v>
+        <v>71463</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>459</v>
+        <v>545</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>499</v>
+        <v>546</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,55 +7513,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>268</v>
+      </c>
+      <c r="D23" s="7">
+        <v>228931</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="7">
+        <v>277</v>
+      </c>
+      <c r="I23" s="7">
+        <v>202912</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="7">
+        <v>545</v>
+      </c>
+      <c r="N23" s="7">
+        <v>431843</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>900</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H24" s="7">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2441</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3341</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>449</v>
+      </c>
+      <c r="D25" s="7">
+        <v>366328</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="H25" s="7">
+        <v>434</v>
+      </c>
+      <c r="I25" s="7">
+        <v>319933</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="M25" s="7">
+        <v>883</v>
+      </c>
+      <c r="N25" s="7">
+        <v>686261</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6175</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="7">
+        <v>8</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4452</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="M26" s="7">
+        <v>16</v>
+      </c>
+      <c r="N26" s="7">
+        <v>10627</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7">
+        <v>111</v>
+      </c>
+      <c r="D27" s="7">
+        <v>90860</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="H27" s="7">
+        <v>108</v>
+      </c>
+      <c r="I27" s="7">
+        <v>74039</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="D23" s="7">
+      <c r="M27" s="7">
+        <v>219</v>
+      </c>
+      <c r="N27" s="7">
+        <v>164899</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>569</v>
+      </c>
+      <c r="D28" s="7">
         <v>464263</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="7">
         <v>555</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>400865</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="7">
         <v>1124</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>865128</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>44</v>
+      <c r="O28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP19D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19D-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0453F681-61B0-49A8-AE93-DAAE2CF2B66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BF376BF-D02C-4835-B631-6668DEE5C6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9BED0B9-7A32-47CC-8F9F-C18C74EE0FB9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2505248-E967-4588-92C8-D1F52801B140}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="567">
   <si>
     <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2007 (Tasa respuesta: 50,0%)</t>
   </si>
@@ -104,13 +104,13 @@
     <t>68,86%</t>
   </si>
   <si>
-    <t>15,73%</t>
+    <t>19,34%</t>
   </si>
   <si>
     <t>79,03%</t>
   </si>
   <si>
-    <t>43,37%</t>
+    <t>38,21%</t>
   </si>
   <si>
     <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
@@ -122,13 +122,13 @@
     <t>31,14%</t>
   </si>
   <si>
-    <t>84,27%</t>
+    <t>80,66%</t>
   </si>
   <si>
     <t>20,97%</t>
   </si>
   <si>
-    <t>56,63%</t>
+    <t>61,79%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -137,46 +137,46 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>4,25%</t>
+    <t>3,41%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>4,76%</t>
+    <t>3,86%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>3,21%</t>
   </si>
   <si>
     <t>52,01%</t>
   </si>
   <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
   </si>
   <si>
     <t>53,67%</t>
   </si>
   <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
   </si>
   <si>
     <t>3,33%</t>
@@ -185,1549 +185,1531 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>7,99%</t>
+    <t>7,61%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2016 (Tasa respuesta: 48,21%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2015 (Tasa respuesta: 48,21%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>2,21%</t>
   </si>
   <si>
     <t>1,23%</t>
@@ -1736,28 +1718,28 @@
     <t>19,57%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EA5517-2903-44CB-9727-3D6F2FF2B4B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB4C04E-B573-42A7-AAA9-E25A48D36126}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3423,13 +3405,13 @@
         <v>9500</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -3438,13 +3420,13 @@
         <v>8864</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -3453,13 +3435,13 @@
         <v>18364</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3456,13 @@
         <v>116382</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H27" s="7">
         <v>164</v>
@@ -3489,13 +3471,13 @@
         <v>110141</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M27" s="7">
         <v>342</v>
@@ -3504,13 +3486,13 @@
         <v>226522</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,7 +3548,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3586,7 +3568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B34200-EA8D-4A09-B975-5C70D494DACC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081130CB-4E33-4094-9767-7801C8426B17}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3603,7 +3585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3716,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3731,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3767,7 +3749,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3776,10 +3758,10 @@
         <v>2049</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3791,10 +3773,10 @@
         <v>2049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>175</v>
@@ -3818,7 +3800,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3833,7 +3815,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3899,7 +3881,7 @@
         <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3949,13 @@
         <v>3090</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3982,13 +3964,13 @@
         <v>1209</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4000,10 +3982,10 @@
         <v>186</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4000,13 @@
         <v>34407</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -4033,13 +4015,13 @@
         <v>36138</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -4048,13 +4030,13 @@
         <v>70545</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4051,13 @@
         <v>3547</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4084,13 +4066,13 @@
         <v>2046</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -4099,13 +4081,13 @@
         <v>5593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4102,13 @@
         <v>50896</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -4135,13 +4117,13 @@
         <v>38221</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M12" s="7">
         <v>121</v>
@@ -4150,13 +4132,13 @@
         <v>89117</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4206,13 @@
         <v>1897</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4245,7 +4227,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -4254,13 +4236,13 @@
         <v>1897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4257,13 @@
         <v>55164</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>220</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H15" s="7">
         <v>76</v>
@@ -4290,13 +4272,13 @@
         <v>53938</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M15" s="7">
         <v>156</v>
@@ -4305,13 +4287,13 @@
         <v>109102</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4308,13 @@
         <v>7163</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4341,13 +4323,13 @@
         <v>3473</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4356,13 +4338,13 @@
         <v>10636</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4359,13 @@
         <v>66913</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -4392,13 +4374,13 @@
         <v>69147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -4407,13 +4389,13 @@
         <v>136061</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,10 +4466,10 @@
         <v>69</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4496,13 +4478,13 @@
         <v>4519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -4511,13 +4493,13 @@
         <v>6829</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4514,13 @@
         <v>82536</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>117</v>
@@ -4547,28 +4529,28 @@
         <v>81922</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>240</v>
       </c>
       <c r="N20" s="7">
-        <v>164458</v>
+        <v>164457</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4565,13 @@
         <v>5350</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -4598,10 +4580,10 @@
         <v>2118</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>267</v>
@@ -4670,7 +4652,7 @@
         <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,7 +4694,7 @@
         <v>419</v>
       </c>
       <c r="N23" s="7">
-        <v>288285</v>
+        <v>288284</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>19</v>
@@ -4738,13 +4720,13 @@
         <v>7297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -4753,10 +4735,10 @@
         <v>5728</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>283</v>
+        <v>139</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>284</v>
@@ -4771,10 +4753,10 @@
         <v>285</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4771,13 @@
         <v>172107</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>248</v>
@@ -4804,13 +4786,13 @@
         <v>174046</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>498</v>
@@ -4819,13 +4801,13 @@
         <v>346153</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4822,13 @@
         <v>16060</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -4983,7 +4965,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5003,7 +4985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C7AF94-182E-424B-ACBC-81315D3F8F3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6024473-D097-46D4-899E-F9430EA96BC9}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5199,7 +5181,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5250,7 +5232,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5283,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>19</v>
@@ -5301,7 +5283,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5310,7 +5292,7 @@
         <v>1283</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
@@ -5384,13 +5366,13 @@
         <v>2747</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>318</v>
+        <v>67</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5399,13 +5381,13 @@
         <v>1311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5414,13 +5396,13 @@
         <v>4057</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5417,13 @@
         <v>41176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -5450,13 +5432,13 @@
         <v>29703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>104</v>
@@ -5465,13 +5447,13 @@
         <v>70879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5468,13 @@
         <v>3120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -5501,13 +5483,13 @@
         <v>3719</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -5516,13 +5498,13 @@
         <v>6840</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5519,13 @@
         <v>32812</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H12" s="7">
         <v>49</v>
@@ -5552,13 +5534,13 @@
         <v>31573</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>96</v>
@@ -5567,13 +5549,13 @@
         <v>64385</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,10 +5623,10 @@
         <v>2402</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>351</v>
@@ -5671,13 +5653,13 @@
         <v>4400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5674,13 @@
         <v>72898</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H15" s="7">
         <v>119</v>
@@ -5707,13 +5689,13 @@
         <v>83988</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M15" s="7">
         <v>222</v>
@@ -5722,13 +5704,13 @@
         <v>156886</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5725,13 @@
         <v>1916</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -5758,13 +5740,13 @@
         <v>9449</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5773,10 +5755,10 @@
         <v>11364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>371</v>
@@ -5934,7 +5916,7 @@
         <v>387</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5931,13 @@
         <v>91735</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -5964,13 +5946,13 @@
         <v>96546</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>263</v>
@@ -5979,13 +5961,13 @@
         <v>188281</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +5982,13 @@
         <v>2026</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -6018,10 +6000,10 @@
         <v>285</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>350</v>
+        <v>245</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -6030,13 +6012,13 @@
         <v>4634</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>403</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>404</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6033,13 @@
         <v>39453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -6066,13 +6048,13 @@
         <v>41412</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>111</v>
@@ -6081,13 +6063,13 @@
         <v>80865</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6137,13 @@
         <v>7240</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>281</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -6173,10 +6155,10 @@
         <v>299</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>416</v>
+        <v>106</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
@@ -6188,10 +6170,10 @@
         <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,13 +6188,13 @@
         <v>205808</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H25" s="7">
         <v>302</v>
@@ -6221,13 +6203,13 @@
         <v>210238</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="M25" s="7">
         <v>589</v>
@@ -6236,13 +6218,13 @@
         <v>416047</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,10 +6239,10 @@
         <v>7062</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>335</v>
+        <v>423</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>280</v>
+        <v>424</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>67</v>
@@ -6272,13 +6254,13 @@
         <v>15776</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>427</v>
+        <v>270</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -6287,13 +6269,13 @@
         <v>22838</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6290,13 @@
         <v>143236</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H27" s="7">
         <v>184</v>
@@ -6323,13 +6305,13 @@
         <v>125479</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M27" s="7">
         <v>380</v>
@@ -6338,13 +6320,13 @@
         <v>268716</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6420,7 +6402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB44183-452D-4EA6-B07F-B22D0BFB9A3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A852FE1A-DC60-4B13-BF01-08C8D714A53E}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6437,7 +6419,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6550,7 +6532,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6559,13 +6541,13 @@
         <v>159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6574,13 +6556,13 @@
         <v>159</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>205</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,10 +6577,10 @@
         <v>4664</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -6610,13 +6592,13 @@
         <v>4471</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -6625,13 +6607,13 @@
         <v>9135</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,7 +6634,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6667,7 +6649,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6682,7 +6664,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6679,13 @@
         <v>620</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6712,13 +6694,13 @@
         <v>1287</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -6727,13 +6709,13 @@
         <v>1907</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>463</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,7 +6789,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6822,7 +6804,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6837,7 +6819,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,13 +6834,13 @@
         <v>54481</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -6867,13 +6849,13 @@
         <v>53641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M10" s="7">
         <v>160</v>
@@ -6882,13 +6864,13 @@
         <v>108122</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,13 +6885,13 @@
         <v>1556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>476</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -6918,13 +6900,13 @@
         <v>1261</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -6936,10 +6918,10 @@
         <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,13 +6936,13 @@
         <v>16804</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -6969,13 +6951,13 @@
         <v>12168</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -6984,13 +6966,13 @@
         <v>28972</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,7 +7046,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>492</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -7073,13 +7055,13 @@
         <v>1739</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -7088,13 +7070,13 @@
         <v>1739</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7109,13 +7091,13 @@
         <v>121655</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H15" s="7">
         <v>121</v>
@@ -7124,13 +7106,13 @@
         <v>93300</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M15" s="7">
         <v>263</v>
@@ -7139,13 +7121,13 @@
         <v>214955</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,13 +7142,13 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>506</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7175,13 +7157,13 @@
         <v>1986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>507</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7190,13 +7172,13 @@
         <v>2921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>502</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>511</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7193,13 @@
         <v>34616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -7226,13 +7208,13 @@
         <v>27941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -7241,13 +7223,13 @@
         <v>62557</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7321,7 +7303,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -7330,13 +7312,13 @@
         <v>542</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>522</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -7348,10 +7330,10 @@
         <v>68</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>269</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,13 +7348,13 @@
         <v>185528</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="H20" s="7">
         <v>226</v>
@@ -7381,13 +7363,13 @@
         <v>168520</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="M20" s="7">
         <v>446</v>
@@ -7396,13 +7378,13 @@
         <v>354049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,13 +7399,13 @@
         <v>3683</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>534</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -7432,13 +7414,13 @@
         <v>1205</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>536</v>
+        <v>423</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -7447,13 +7429,13 @@
         <v>4889</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>217</v>
+        <v>528</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7450,13 @@
         <v>38819</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -7483,13 +7465,13 @@
         <v>32644</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -7498,13 +7480,13 @@
         <v>71463</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,13 +7554,13 @@
         <v>900</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>300</v>
+        <v>539</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -7587,13 +7569,13 @@
         <v>2441</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7605,10 +7587,10 @@
         <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>552</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,13 +7605,13 @@
         <v>366328</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>544</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="H25" s="7">
         <v>434</v>
@@ -7638,13 +7620,13 @@
         <v>319933</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="M25" s="7">
         <v>883</v>
@@ -7653,13 +7635,13 @@
         <v>686261</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,13 +7656,13 @@
         <v>6175</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>554</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -7689,13 +7671,13 @@
         <v>4452</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>99</v>
+        <v>555</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -7704,13 +7686,13 @@
         <v>10627</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,13 +7707,13 @@
         <v>90860</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H27" s="7">
         <v>108</v>
@@ -7740,13 +7722,13 @@
         <v>74039</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M27" s="7">
         <v>219</v>
@@ -7755,13 +7737,13 @@
         <v>164899</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,7 +7799,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BF376BF-D02C-4835-B631-6668DEE5C6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8F62CE3-C4F7-4E3E-83A9-A27426739900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2505248-E967-4588-92C8-D1F52801B140}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9D1C2A13-E386-4C46-863A-48376001AFD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="571">
   <si>
     <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2007 (Tasa respuesta: 50,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,18 +80,24 @@
     <t>0%</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>18,74%</t>
   </si>
   <si>
     <t>Dentista privado/particular</t>
   </si>
   <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -101,16 +107,10 @@
     <t>100%</t>
   </si>
   <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
     <t>79,03%</t>
   </si>
   <si>
-    <t>38,21%</t>
+    <t>36,75%</t>
   </si>
   <si>
     <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
@@ -122,1624 +122,1636 @@
     <t>31,14%</t>
   </si>
   <si>
-    <t>80,66%</t>
+    <t>81,97%</t>
   </si>
   <si>
     <t>20,97%</t>
   </si>
   <si>
-    <t>61,79%</t>
+    <t>63,25%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
     <t>0,85%</t>
   </si>
   <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2016 (Tasa respuesta: 48,21%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2016 (Tasa respuesta: 48,21%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB4C04E-B573-42A7-AAA9-E25A48D36126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53E5F9D-99E9-4A3A-8FB2-5DB1CC5CF8EC}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2320,10 +2332,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>1893</v>
+        <v>2690</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -2335,19 +2347,19 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>2690</v>
+        <v>1893</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -2362,7 +2374,7 @@
         <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,34 +2434,34 @@
         <v>25</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1216</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1216</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2473,34 +2485,34 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3906</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>1893</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3906</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -2509,13 +2521,13 @@
         <v>5799</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>671</v>
+        <v>635</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>31</v>
@@ -2544,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>635</v>
+        <v>671</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>33</v>
@@ -2577,10 +2589,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7">
-        <v>41156</v>
+        <v>44557</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>37</v>
@@ -2592,10 +2604,10 @@
         <v>39</v>
       </c>
       <c r="H10" s="7">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7">
-        <v>44557</v>
+        <v>41156</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>40</v>
@@ -2631,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>2633</v>
+        <v>2544</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>46</v>
@@ -2646,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>2544</v>
+        <v>2633</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>49</v>
@@ -2682,7 +2694,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>34675</v>
+        <v>35283</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>55</v>
@@ -2697,7 +2709,7 @@
         <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>35283</v>
+        <v>34675</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>58</v>
@@ -2730,34 +2742,34 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>125</v>
+      </c>
+      <c r="D13" s="7">
+        <v>83019</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="7">
         <v>121</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>79134</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="7">
-        <v>125</v>
-      </c>
-      <c r="I13" s="7">
-        <v>83019</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -2766,13 +2778,13 @@
         <v>162152</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,31 +2795,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>661</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>661</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>67</v>
@@ -2834,10 +2846,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D15" s="7">
-        <v>59571</v>
+        <v>55889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>70</v>
@@ -2849,10 +2861,10 @@
         <v>72</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I15" s="7">
-        <v>55889</v>
+        <v>59571</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>73</v>
@@ -2885,10 +2897,10 @@
         <v>24</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>2001</v>
+        <v>4515</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>79</v>
@@ -2900,10 +2912,10 @@
         <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>4515</v>
+        <v>2001</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>82</v>
@@ -2936,10 +2948,10 @@
         <v>25</v>
       </c>
       <c r="C17" s="7">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7">
-        <v>43498</v>
+        <v>35898</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>88</v>
@@ -2951,10 +2963,10 @@
         <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I17" s="7">
-        <v>35898</v>
+        <v>43498</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>91</v>
@@ -2987,34 +2999,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>145</v>
+      </c>
+      <c r="D18" s="7">
+        <v>96963</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>157</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>105070</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>145</v>
-      </c>
-      <c r="I18" s="7">
-        <v>96963</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>302</v>
@@ -3023,13 +3035,13 @@
         <v>202033</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,10 +3052,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>4135</v>
+        <v>2662</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>98</v>
@@ -3055,10 +3067,10 @@
         <v>100</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>2662</v>
+        <v>4135</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>101</v>
@@ -3091,10 +3103,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D20" s="7">
-        <v>123829</v>
+        <v>119385</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>107</v>
@@ -3106,10 +3118,10 @@
         <v>109</v>
       </c>
       <c r="H20" s="7">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="I20" s="7">
-        <v>119385</v>
+        <v>123829</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>110</v>
@@ -3142,34 +3154,34 @@
         <v>24</v>
       </c>
       <c r="C21" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>4867</v>
+        <v>1805</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>116</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>4867</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="7">
-        <v>3</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1805</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -3178,10 +3190,10 @@
         <v>6672</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>122</v>
@@ -3193,10 +3205,10 @@
         <v>25</v>
       </c>
       <c r="C22" s="7">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D22" s="7">
-        <v>38209</v>
+        <v>37744</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>123</v>
@@ -3208,10 +3220,10 @@
         <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I22" s="7">
-        <v>37744</v>
+        <v>38209</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>126</v>
@@ -3244,34 +3256,34 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>238</v>
+      </c>
+      <c r="D23" s="7">
+        <v>161596</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
         <v>257</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>171039</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
-        <v>238</v>
-      </c>
-      <c r="I23" s="7">
-        <v>161596</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
         <v>495</v>
@@ -3280,13 +3292,13 @@
         <v>332635</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,10 +3309,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>4806</v>
+        <v>3958</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>132</v>
@@ -3312,10 +3324,10 @@
         <v>134</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>3958</v>
+        <v>4806</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>135</v>
@@ -3348,10 +3360,10 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D25" s="7">
-        <v>226449</v>
+        <v>222521</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>141</v>
@@ -3363,10 +3375,10 @@
         <v>143</v>
       </c>
       <c r="H25" s="7">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="I25" s="7">
-        <v>222521</v>
+        <v>226449</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>144</v>
@@ -3402,31 +3414,31 @@
         <v>14</v>
       </c>
       <c r="D26" s="7">
-        <v>9500</v>
+        <v>8864</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>8864</v>
+        <v>9500</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -3435,13 +3447,13 @@
         <v>18364</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,34 +3462,34 @@
         <v>25</v>
       </c>
       <c r="C27" s="7">
+        <v>164</v>
+      </c>
+      <c r="D27" s="7">
+        <v>110141</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="7">
         <v>178</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>116382</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H27" s="7">
-        <v>164</v>
-      </c>
-      <c r="I27" s="7">
-        <v>110141</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M27" s="7">
         <v>342</v>
@@ -3486,13 +3498,13 @@
         <v>226522</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,34 +3513,34 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>514</v>
+      </c>
+      <c r="D28" s="7">
+        <v>345484</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="7">
         <v>538</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>357136</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="7">
-        <v>514</v>
-      </c>
-      <c r="I28" s="7">
-        <v>345484</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M28" s="7">
         <v>1052</v>
@@ -3537,18 +3549,18 @@
         <v>702619</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081130CB-4E33-4094-9767-7801C8426B17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94740EE-5451-41CC-A39A-04167A6F2FAF}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3585,7 +3597,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3698,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3713,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3728,7 +3740,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,34 +3749,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2049</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2049</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3773,13 +3785,13 @@
         <v>2049</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,7 +3812,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3815,7 +3827,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3830,7 +3842,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,34 +3851,34 @@
         <v>25</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1249</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>669</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1249</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3875,13 +3887,13 @@
         <v>1918</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,34 +3902,34 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3298</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>669</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3298</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3926,13 +3938,13 @@
         <v>3967</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,31 +3955,31 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>3090</v>
+        <v>1209</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>181</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>4</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3090</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1209</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>185</v>
@@ -3982,7 +3994,7 @@
         <v>186</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>187</v>
@@ -3994,10 +4006,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>34407</v>
+        <v>36138</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>188</v>
@@ -4009,10 +4021,10 @@
         <v>190</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>36138</v>
+        <v>34407</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>191</v>
@@ -4045,34 +4057,34 @@
         <v>24</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>3547</v>
+        <v>2046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>198</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>2046</v>
+        <v>3547</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -4081,10 +4093,10 @@
         <v>5593</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>203</v>
@@ -4096,10 +4108,10 @@
         <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>50896</v>
+        <v>38221</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>204</v>
@@ -4111,10 +4123,10 @@
         <v>206</v>
       </c>
       <c r="H12" s="7">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I12" s="7">
-        <v>38221</v>
+        <v>50896</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>207</v>
@@ -4147,34 +4159,34 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>110</v>
+      </c>
+      <c r="D13" s="7">
+        <v>77614</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="7">
         <v>124</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>91939</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="7">
-        <v>110</v>
-      </c>
-      <c r="I13" s="7">
-        <v>77614</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M13" s="7">
         <v>234</v>
@@ -4183,13 +4195,13 @@
         <v>169553</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,31 +4212,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>1897</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>215</v>
@@ -4236,13 +4248,13 @@
         <v>1897</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,34 +4263,34 @@
         <v>16</v>
       </c>
       <c r="C15" s="7">
+        <v>76</v>
+      </c>
+      <c r="D15" s="7">
+        <v>53938</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="7">
         <v>80</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>55164</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H15" s="7">
-        <v>76</v>
-      </c>
-      <c r="I15" s="7">
-        <v>53938</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M15" s="7">
         <v>156</v>
@@ -4287,13 +4299,13 @@
         <v>109102</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,34 +4314,34 @@
         <v>24</v>
       </c>
       <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3473</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>7163</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3473</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4338,13 +4350,13 @@
         <v>10636</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,34 +4365,34 @@
         <v>25</v>
       </c>
       <c r="C17" s="7">
+        <v>99</v>
+      </c>
+      <c r="D17" s="7">
+        <v>69147</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="7">
         <v>96</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>66913</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H17" s="7">
-        <v>99</v>
-      </c>
-      <c r="I17" s="7">
-        <v>69147</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -4389,13 +4401,13 @@
         <v>136061</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,34 +4416,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>180</v>
+      </c>
+      <c r="D18" s="7">
+        <v>126558</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>189</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>131138</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>180</v>
-      </c>
-      <c r="I18" s="7">
-        <v>126558</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>369</v>
@@ -4440,13 +4452,13 @@
         <v>257696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,34 +4469,34 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4519</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2310</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4519</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -4493,13 +4505,13 @@
         <v>6829</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,49 +4520,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
+        <v>117</v>
+      </c>
+      <c r="D20" s="7">
+        <v>81922</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="7">
         <v>123</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>82536</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H20" s="7">
-        <v>117</v>
-      </c>
-      <c r="I20" s="7">
-        <v>81922</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M20" s="7">
         <v>240</v>
       </c>
       <c r="N20" s="7">
-        <v>164457</v>
+        <v>164458</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,34 +4571,34 @@
         <v>24</v>
       </c>
       <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2118</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" s="7">
         <v>8</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>5350</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2118</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -4595,13 +4607,13 @@
         <v>7467</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,34 +4622,34 @@
         <v>25</v>
       </c>
       <c r="C22" s="7">
+        <v>84</v>
+      </c>
+      <c r="D22" s="7">
+        <v>58484</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" s="7">
         <v>74</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>51047</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H22" s="7">
-        <v>84</v>
-      </c>
-      <c r="I22" s="7">
-        <v>58484</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>158</v>
@@ -4646,13 +4658,13 @@
         <v>109531</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,49 +4673,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>210</v>
+      </c>
+      <c r="D23" s="7">
+        <v>147042</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
         <v>209</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>141243</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
-        <v>210</v>
-      </c>
-      <c r="I23" s="7">
-        <v>147042</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
         <v>419</v>
       </c>
       <c r="N23" s="7">
-        <v>288284</v>
+        <v>288285</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,34 +4726,34 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5728</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="7">
         <v>11</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>7297</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H24" s="7">
-        <v>8</v>
-      </c>
-      <c r="I24" s="7">
-        <v>5728</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -4750,13 +4762,13 @@
         <v>13025</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,34 +4777,34 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
+        <v>248</v>
+      </c>
+      <c r="D25" s="7">
+        <v>174046</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="7">
         <v>250</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>172107</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H25" s="7">
-        <v>248</v>
-      </c>
-      <c r="I25" s="7">
-        <v>174046</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>498</v>
@@ -4801,13 +4813,13 @@
         <v>346153</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,34 +4828,34 @@
         <v>24</v>
       </c>
       <c r="C26" s="7">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7637</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H26" s="7">
         <v>23</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>16060</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H26" s="7">
-        <v>11</v>
-      </c>
-      <c r="I26" s="7">
-        <v>7637</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -4852,13 +4864,13 @@
         <v>23697</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,34 +4879,34 @@
         <v>25</v>
       </c>
       <c r="C27" s="7">
+        <v>238</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167100</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H27" s="7">
         <v>239</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>169525</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="J27" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H27" s="7">
-        <v>238</v>
-      </c>
-      <c r="I27" s="7">
-        <v>167100</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M27" s="7">
         <v>477</v>
@@ -4903,13 +4915,13 @@
         <v>336625</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,34 +4930,34 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>505</v>
+      </c>
+      <c r="D28" s="7">
+        <v>354511</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="7">
         <v>523</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>364989</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="7">
-        <v>505</v>
-      </c>
-      <c r="I28" s="7">
-        <v>354511</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M28" s="7">
         <v>1028</v>
@@ -4954,18 +4966,18 @@
         <v>719500</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4985,7 +4997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6024473-D097-46D4-899E-F9430EA96BC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFE7C51-67B6-44A4-B8F0-7B8FDF813429}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5002,7 +5014,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5103,34 +5115,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>536</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>536</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5139,13 +5151,13 @@
         <v>536</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,7 +5178,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5181,7 +5193,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5196,7 +5208,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,7 +5229,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5232,7 +5244,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5247,7 +5259,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,34 +5268,34 @@
         <v>25</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1284</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5292,13 +5304,13 @@
         <v>1283</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,34 +5319,34 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>536</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>1284</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>536</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5343,13 +5355,13 @@
         <v>1819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,34 +5372,34 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1311</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>2747</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1311</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5396,13 +5408,13 @@
         <v>4057</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,34 +5423,34 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
+        <v>45</v>
+      </c>
+      <c r="D10" s="7">
+        <v>29703</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H10" s="7">
         <v>59</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>41176</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H10" s="7">
-        <v>45</v>
-      </c>
-      <c r="I10" s="7">
-        <v>29703</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>104</v>
@@ -5447,13 +5459,13 @@
         <v>70879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,31 +5477,31 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>3120</v>
+        <v>3719</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>3719</v>
+        <v>3120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>337</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -5498,13 +5510,13 @@
         <v>6840</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,34 +5525,34 @@
         <v>25</v>
       </c>
       <c r="C12" s="7">
+        <v>49</v>
+      </c>
+      <c r="D12" s="7">
+        <v>31573</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H12" s="7">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>32812</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H12" s="7">
-        <v>49</v>
-      </c>
-      <c r="I12" s="7">
-        <v>31573</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>96</v>
@@ -5549,13 +5561,13 @@
         <v>64385</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,34 +5576,34 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>101</v>
+      </c>
+      <c r="D13" s="7">
+        <v>66306</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="7">
         <v>115</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>79855</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="7">
-        <v>101</v>
-      </c>
-      <c r="I13" s="7">
-        <v>66306</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M13" s="7">
         <v>216</v>
@@ -5600,13 +5612,13 @@
         <v>146161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,31 +5632,31 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>2402</v>
+        <v>1998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1998</v>
+        <v>2402</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -5653,13 +5665,13 @@
         <v>4400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,34 +5680,34 @@
         <v>16</v>
       </c>
       <c r="C15" s="7">
+        <v>119</v>
+      </c>
+      <c r="D15" s="7">
+        <v>83988</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H15" s="7">
         <v>103</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>72898</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H15" s="7">
-        <v>119</v>
-      </c>
-      <c r="I15" s="7">
-        <v>83988</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M15" s="7">
         <v>222</v>
@@ -5704,13 +5716,13 @@
         <v>156886</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,34 +5731,34 @@
         <v>24</v>
       </c>
       <c r="C16" s="7">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9449</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1916</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H16" s="7">
-        <v>14</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9449</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5755,13 +5767,13 @@
         <v>11364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>158</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,34 +5782,34 @@
         <v>25</v>
       </c>
       <c r="C17" s="7">
+        <v>76</v>
+      </c>
+      <c r="D17" s="7">
+        <v>52494</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H17" s="7">
         <v>95</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>69689</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="H17" s="7">
-        <v>76</v>
-      </c>
-      <c r="I17" s="7">
-        <v>52494</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>171</v>
@@ -5806,13 +5818,13 @@
         <v>122183</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,34 +5833,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>212</v>
+      </c>
+      <c r="D18" s="7">
+        <v>147929</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>204</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>146904</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>212</v>
-      </c>
-      <c r="I18" s="7">
-        <v>147929</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>416</v>
@@ -5857,13 +5869,13 @@
         <v>294833</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,34 +5886,34 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3863</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2091</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3863</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -5910,13 +5922,13 @@
         <v>5954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>267</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,34 +5937,34 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
+        <v>138</v>
+      </c>
+      <c r="D20" s="7">
+        <v>96546</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H20" s="7">
         <v>125</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>91735</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="H20" s="7">
-        <v>138</v>
-      </c>
-      <c r="I20" s="7">
-        <v>96546</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M20" s="7">
         <v>263</v>
@@ -5961,13 +5973,13 @@
         <v>188281</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,34 +5988,34 @@
         <v>24</v>
       </c>
       <c r="C21" s="7">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2608</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H21" s="7">
         <v>3</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>2026</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2608</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -6012,13 +6024,13 @@
         <v>4634</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>399</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>302</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,34 +6039,34 @@
         <v>25</v>
       </c>
       <c r="C22" s="7">
+        <v>59</v>
+      </c>
+      <c r="D22" s="7">
+        <v>41412</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H22" s="7">
         <v>52</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>39453</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H22" s="7">
-        <v>59</v>
-      </c>
-      <c r="I22" s="7">
-        <v>41412</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>111</v>
@@ -6063,13 +6075,13 @@
         <v>80865</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,34 +6090,34 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>207</v>
+      </c>
+      <c r="D23" s="7">
+        <v>144429</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
         <v>183</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>135305</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
-        <v>207</v>
-      </c>
-      <c r="I23" s="7">
-        <v>144429</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
         <v>390</v>
@@ -6114,13 +6126,13 @@
         <v>279734</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,34 +6143,34 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7707</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H24" s="7">
         <v>10</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>7240</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="H24" s="7">
-        <v>12</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7707</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="K24" s="7" t="s">
-        <v>117</v>
+        <v>409</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
@@ -6167,13 +6179,13 @@
         <v>14947</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,34 +6194,34 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
+        <v>302</v>
+      </c>
+      <c r="D25" s="7">
+        <v>210238</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H25" s="7">
         <v>287</v>
       </c>
-      <c r="D25" s="7">
-        <v>205808</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H25" s="7">
-        <v>302</v>
-      </c>
       <c r="I25" s="7">
-        <v>210238</v>
+        <v>205809</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M25" s="7">
         <v>589</v>
@@ -6218,13 +6230,13 @@
         <v>416047</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,34 +6245,34 @@
         <v>24</v>
       </c>
       <c r="C26" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D26" s="7">
-        <v>7062</v>
+        <v>15776</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>423</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>424</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>67</v>
+        <v>425</v>
       </c>
       <c r="H26" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I26" s="7">
-        <v>15776</v>
+        <v>7062</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>270</v>
+        <v>426</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -6269,13 +6281,13 @@
         <v>22838</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>427</v>
+        <v>367</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,34 +6296,34 @@
         <v>25</v>
       </c>
       <c r="C27" s="7">
+        <v>184</v>
+      </c>
+      <c r="D27" s="7">
+        <v>125479</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H27" s="7">
         <v>196</v>
       </c>
-      <c r="D27" s="7">
-        <v>143236</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="H27" s="7">
-        <v>184</v>
-      </c>
       <c r="I27" s="7">
-        <v>125479</v>
+        <v>143237</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M27" s="7">
         <v>380</v>
@@ -6320,13 +6332,13 @@
         <v>268716</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,34 +6347,34 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>521</v>
+      </c>
+      <c r="D28" s="7">
+        <v>359201</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="7">
         <v>504</v>
       </c>
-      <c r="D28" s="7">
-        <v>363346</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="7">
-        <v>521</v>
-      </c>
       <c r="I28" s="7">
-        <v>359201</v>
+        <v>363347</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M28" s="7">
         <v>1025</v>
@@ -6371,18 +6383,18 @@
         <v>722548</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6402,7 +6414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A852FE1A-DC60-4B13-BF01-08C8D714A53E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989E2671-BD64-417F-9390-CA4D07570745}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6419,7 +6431,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6520,49 +6532,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>163</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>159</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,46 +6586,46 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>4664</v>
+        <v>4333</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>4471</v>
+        <v>4710</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>447</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>9135</v>
+        <v>9043</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,7 +6646,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6649,7 +6661,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6664,7 +6676,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,49 +6685,49 @@
         <v>25</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1301</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>620</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>606</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1287</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>456</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,49 +6736,49 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5797</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
         <v>8</v>
       </c>
-      <c r="D8" s="7">
-        <v>5284</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>11</v>
-      </c>
       <c r="I8" s="7">
-        <v>5917</v>
+        <v>5316</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>11201</v>
+        <v>11113</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,7 +6801,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6804,7 +6816,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6819,7 +6831,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,46 +6843,46 @@
         <v>80</v>
       </c>
       <c r="D10" s="7">
-        <v>54481</v>
+        <v>53179</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
       </c>
       <c r="I10" s="7">
-        <v>53641</v>
+        <v>57106</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M10" s="7">
         <v>160</v>
       </c>
       <c r="N10" s="7">
-        <v>108122</v>
+        <v>110284</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,49 +6891,49 @@
         <v>24</v>
       </c>
       <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1220</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <v>1556</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>1591</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1261</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>474</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>2818</v>
+        <v>2811</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>80</v>
+        <v>479</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,49 +6942,49 @@
         <v>25</v>
       </c>
       <c r="C12" s="7">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11796</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H12" s="7">
         <v>25</v>
       </c>
-      <c r="D12" s="7">
-        <v>16804</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H12" s="7">
-        <v>20</v>
-      </c>
       <c r="I12" s="7">
-        <v>12168</v>
+        <v>17870</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
       </c>
       <c r="N12" s="7">
-        <v>28972</v>
+        <v>29666</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,49 +6993,49 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>103</v>
+      </c>
+      <c r="D13" s="7">
+        <v>66196</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="7">
         <v>107</v>
       </c>
-      <c r="D13" s="7">
-        <v>72842</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="7">
-        <v>103</v>
-      </c>
       <c r="I13" s="7">
-        <v>67070</v>
+        <v>76566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M13" s="7">
         <v>210</v>
       </c>
       <c r="N13" s="7">
-        <v>139912</v>
+        <v>142761</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,49 +7046,49 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1624</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1739</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1739</v>
+        <v>1624</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>488</v>
+        <v>350</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,49 +7097,49 @@
         <v>16</v>
       </c>
       <c r="C15" s="7">
+        <v>121</v>
+      </c>
+      <c r="D15" s="7">
+        <v>90883</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H15" s="7">
         <v>142</v>
       </c>
-      <c r="D15" s="7">
-        <v>121655</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="H15" s="7">
-        <v>121</v>
-      </c>
       <c r="I15" s="7">
-        <v>93300</v>
+        <v>128133</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M15" s="7">
         <v>263</v>
       </c>
       <c r="N15" s="7">
-        <v>214955</v>
+        <v>219016</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,49 +7148,49 @@
         <v>24</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
-        <v>935</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>955</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1986</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>500</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>501</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>2921</v>
+        <v>2977</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>502</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,10 +7199,10 @@
         <v>25</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>34616</v>
+        <v>28199</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>504</v>
@@ -7202,10 +7214,10 @@
         <v>506</v>
       </c>
       <c r="H17" s="7">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>27941</v>
+        <v>35700</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>507</v>
@@ -7220,16 +7232,16 @@
         <v>81</v>
       </c>
       <c r="N17" s="7">
-        <v>62557</v>
+        <v>63899</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>510</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,49 +7250,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>164</v>
+      </c>
+      <c r="D18" s="7">
+        <v>122728</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>186</v>
       </c>
-      <c r="D18" s="7">
-        <v>157207</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>164</v>
-      </c>
       <c r="I18" s="7">
-        <v>124966</v>
+        <v>164788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>350</v>
       </c>
       <c r="N18" s="7">
-        <v>282172</v>
+        <v>287516</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,49 +7303,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>900</v>
+        <v>528</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>136</v>
+        <v>512</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>250</v>
+        <v>513</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>542</v>
+        <v>846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>515</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>1443</v>
+        <v>1374</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>68</v>
+        <v>516</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>515</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,49 +7354,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
+        <v>226</v>
+      </c>
+      <c r="D20" s="7">
+        <v>164476</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H20" s="7">
         <v>220</v>
       </c>
-      <c r="D20" s="7">
-        <v>185528</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="H20" s="7">
-        <v>226</v>
-      </c>
       <c r="I20" s="7">
-        <v>168520</v>
+        <v>194262</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M20" s="7">
         <v>446</v>
       </c>
       <c r="N20" s="7">
-        <v>354049</v>
+        <v>358738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,49 +7405,49 @@
         <v>24</v>
       </c>
       <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1215</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="7">
         <v>5</v>
       </c>
-      <c r="D21" s="7">
-        <v>3683</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="I21" s="7">
+        <v>3811</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1205</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>423</v>
+        <v>528</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
       </c>
       <c r="N21" s="7">
-        <v>4889</v>
+        <v>5026</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,49 +7456,49 @@
         <v>25</v>
       </c>
       <c r="C22" s="7">
+        <v>47</v>
+      </c>
+      <c r="D22" s="7">
+        <v>31517</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="H22" s="7">
         <v>42</v>
       </c>
-      <c r="D22" s="7">
-        <v>38819</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="H22" s="7">
-        <v>47</v>
-      </c>
       <c r="I22" s="7">
-        <v>32644</v>
+        <v>38289</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
       </c>
       <c r="N22" s="7">
-        <v>71463</v>
+        <v>69806</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,49 +7507,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>277</v>
+      </c>
+      <c r="D23" s="7">
+        <v>197737</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
         <v>268</v>
       </c>
-      <c r="D23" s="7">
-        <v>228931</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
-        <v>277</v>
-      </c>
       <c r="I23" s="7">
-        <v>202912</v>
+        <v>237208</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
         <v>545</v>
       </c>
       <c r="N23" s="7">
-        <v>431843</v>
+        <v>434945</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,49 +7560,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2315</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
-        <v>900</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="I24" s="7">
+        <v>846</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2441</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>541</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>3341</v>
+        <v>3161</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>514</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>462</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,49 +7611,49 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
+        <v>434</v>
+      </c>
+      <c r="D25" s="7">
+        <v>312872</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H25" s="7">
         <v>449</v>
       </c>
-      <c r="D25" s="7">
-        <v>366328</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="H25" s="7">
-        <v>434</v>
-      </c>
       <c r="I25" s="7">
-        <v>319933</v>
+        <v>384211</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M25" s="7">
         <v>883</v>
       </c>
       <c r="N25" s="7">
-        <v>686261</v>
+        <v>697082</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,46 +7665,46 @@
         <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>6175</v>
+        <v>4457</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>553</v>
+        <v>244</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>557</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
       </c>
       <c r="I26" s="7">
-        <v>4452</v>
+        <v>6357</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>556</v>
+        <v>229</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
       </c>
       <c r="N26" s="7">
-        <v>10627</v>
+        <v>10814</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>337</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,49 +7713,49 @@
         <v>25</v>
       </c>
       <c r="C27" s="7">
+        <v>108</v>
+      </c>
+      <c r="D27" s="7">
+        <v>72814</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="H27" s="7">
         <v>111</v>
       </c>
-      <c r="D27" s="7">
-        <v>90860</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="H27" s="7">
-        <v>108</v>
-      </c>
       <c r="I27" s="7">
-        <v>74039</v>
+        <v>92465</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="M27" s="7">
         <v>219</v>
       </c>
       <c r="N27" s="7">
-        <v>164899</v>
+        <v>165279</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,54 +7764,54 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>555</v>
+      </c>
+      <c r="D28" s="7">
+        <v>392458</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="7">
         <v>569</v>
       </c>
-      <c r="D28" s="7">
-        <v>464263</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="7">
-        <v>555</v>
-      </c>
       <c r="I28" s="7">
-        <v>400865</v>
+        <v>483878</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M28" s="7">
         <v>1124</v>
       </c>
       <c r="N28" s="7">
-        <v>865128</v>
+        <v>876336</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
